--- a/Tables/Movies.xlsx
+++ b/Tables/Movies.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarthak\Desktop\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repos\DMProject\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>release_date</t>
   </si>
@@ -35,17 +35,103 @@
     <t>director</t>
   </si>
   <si>
-    <t>genre</t>
+    <t>'Bill Condon'</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>'PG'</t>
+  </si>
+  <si>
+    <t>'Chris McKay'</t>
+  </si>
+  <si>
+    <t>'R'</t>
+  </si>
+  <si>
+    <t>'James Mangold</t>
+  </si>
+  <si>
+    <t>'Damien Chazelle'</t>
+  </si>
+  <si>
+    <t>'PG-13'</t>
+  </si>
+  <si>
+    <t>'Hugh Jackman, Patrick Stewart, Richard E. Grant, Boyd Holbrook, Stephen Merchant, Dafne Keen'</t>
+  </si>
+  <si>
+    <t>'Will Arnett, Zach Galifianakis, Michael Cera, Rosario Dawson, Ralph Fiennes'</t>
+  </si>
+  <si>
+    <t>'Emma Watson, Dan Stevens, Luke Evans, Kevin Kline, Josh Gad, Ewan McGregor, Stanley Tucci, Audra McDonald, Gugu Mbatha-Raw,  Ian McKellen, Emma Thompson'</t>
+  </si>
+  <si>
+    <t>'Ryan Gosling, Emma Stone, John Legend, Rosemarie DeWitt'</t>
+  </si>
+  <si>
+    <t>'Tim Miller'</t>
+  </si>
+  <si>
+    <t>'Ryan Reynolds, Morena Baccarin, Ed Skrein, T.J. Miller, Gina Carano, Leslie Uggams, Brianna Hildebrand, Stefan Kapičić'</t>
+  </si>
+  <si>
+    <t>'David Fincher'</t>
+  </si>
+  <si>
+    <t>'Brad Pitt, Edward Norton, Helena Bonham Carter, Meat Loaf Aday, Jared Leto'</t>
+  </si>
+  <si>
+    <t>'Eddie Redmayne, Felicity Jones, Charlie Cox, Emily Watson, Simon McBurney, David Thewlis'</t>
+  </si>
+  <si>
+    <t>'James Marsh'</t>
+  </si>
+  <si>
+    <t>'Tony Scott'</t>
+  </si>
+  <si>
+    <t>'Tom Cruise, Kelly McGillis, Val Kilmer, Anthony Edwards, Tom Skerritt'</t>
+  </si>
+  <si>
+    <t>show_id</t>
+  </si>
+  <si>
+    <t>'Morten Tyldum'</t>
+  </si>
+  <si>
+    <t>'Benedict Cumberbatch, Keira Knightley, Matthew Goode, Rory Kinnear, Charles Dance, Mark Strong'</t>
+  </si>
+  <si>
+    <t>'Christopher Nolan'</t>
+  </si>
+  <si>
+    <t>'Matthew McConaughey, Anne Hathaway, Jessica Chastain, Bill Irwin, Ellen Burstyn, Michael Caine'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,13 +154,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -387,29 +480,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="150.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2017</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2017</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2017</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1999</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1986</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2014</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2014</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
